--- a/ExcelSheet/W1_V1 DataValidation.xlsx
+++ b/ExcelSheet/W1_V1 DataValidation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4eb42d5b6ce26d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4eb42d5b6ce26d/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{75CC662F-D43F-4B6A-AB70-57115C88F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0B74A9-D693-45EB-93C8-38098E79380C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{75CC662F-D43F-4B6A-AB70-57115C88F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85621C69-13BA-4DB7-B301-E88E3572E246}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,6 +619,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +961,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3184,7 +3188,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error 1" error="There is an error" promptTitle="Info 1" prompt="Input data between 0 to 100" sqref="I4:I54" xr:uid="{7DF9B7B4-5316-41E8-BCB8-1DB43205F751}">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -3198,6 +3202,9 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error 4" error="There is an error" promptTitle="Info 4" prompt="Enter unique Product code" sqref="A4:A54" xr:uid="{38490F01-1DF7-484B-B7C9-69CD1AD08842}">
       <formula1>COUNTIFS($A$5:$A$54,A4)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54" xr:uid="{EA1C50D2-9DF8-4C61-9274-993DBAB60D93}">
+      <formula1>"India,China,USA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
